--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H2">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I2">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J2">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>2378.089313714507</v>
+        <v>3702.064657744926</v>
       </c>
       <c r="R2">
-        <v>2378.089313714507</v>
+        <v>33318.58191970434</v>
       </c>
       <c r="S2">
-        <v>0.01905500432770423</v>
+        <v>0.02523477491107101</v>
       </c>
       <c r="T2">
-        <v>0.01905500432770423</v>
+        <v>0.02523477491107101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H3">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I3">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J3">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>4718.140996368307</v>
+        <v>5687.495663195483</v>
       </c>
       <c r="R3">
-        <v>4718.140996368307</v>
+        <v>51187.46096875935</v>
       </c>
       <c r="S3">
-        <v>0.03780522312010606</v>
+        <v>0.03876827828173478</v>
       </c>
       <c r="T3">
-        <v>0.03780522312010606</v>
+        <v>0.03876827828173479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H4">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I4">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J4">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>2214.973780637019</v>
+        <v>2842.001818527627</v>
       </c>
       <c r="R4">
-        <v>2214.973780637019</v>
+        <v>25578.01636674865</v>
       </c>
       <c r="S4">
-        <v>0.01774800245406457</v>
+        <v>0.01937223760729371</v>
       </c>
       <c r="T4">
-        <v>0.01774800245406457</v>
+        <v>0.01937223760729371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H5">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I5">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J5">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>2486.12166010542</v>
+        <v>2982.982467906888</v>
       </c>
       <c r="R5">
-        <v>2486.12166010542</v>
+        <v>26846.84221116199</v>
       </c>
       <c r="S5">
-        <v>0.01992063911111591</v>
+        <v>0.02033321891983224</v>
       </c>
       <c r="T5">
-        <v>0.01992063911111591</v>
+        <v>0.02033321891983225</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H6">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I6">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J6">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>1856.511450805106</v>
+        <v>2272.277982850764</v>
       </c>
       <c r="R6">
-        <v>1856.511450805106</v>
+        <v>20450.50184565688</v>
       </c>
       <c r="S6">
-        <v>0.01487573806648486</v>
+        <v>0.01548876876384699</v>
       </c>
       <c r="T6">
-        <v>0.01487573806648486</v>
+        <v>0.01548876876384699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H7">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I7">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J7">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>3508.674909526394</v>
+        <v>4523.550998382229</v>
       </c>
       <c r="R7">
-        <v>3508.674909526394</v>
+        <v>40711.95898544007</v>
       </c>
       <c r="S7">
-        <v>0.02811408940781232</v>
+        <v>0.030834359147163</v>
       </c>
       <c r="T7">
-        <v>0.02811408940781232</v>
+        <v>0.030834359147163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H8">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I8">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J8">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>259.0578267986363</v>
+        <v>336.5842481796224</v>
       </c>
       <c r="R8">
-        <v>259.0578267986363</v>
+        <v>3029.258233616602</v>
       </c>
       <c r="S8">
-        <v>0.002075762244212448</v>
+        <v>0.00229429481293788</v>
       </c>
       <c r="T8">
-        <v>0.002075762244212448</v>
+        <v>0.00229429481293788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H9">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I9">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J9">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>513.972013582439</v>
+        <v>517.0956287369662</v>
       </c>
       <c r="R9">
-        <v>513.972013582439</v>
+        <v>4653.860658632696</v>
       </c>
       <c r="S9">
-        <v>0.004118322590598876</v>
+        <v>0.003524733629753679</v>
       </c>
       <c r="T9">
-        <v>0.004118322590598876</v>
+        <v>0.003524733629753679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H10">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I10">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J10">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>241.2887904245768</v>
+        <v>258.3890703834782</v>
       </c>
       <c r="R10">
-        <v>241.2887904245768</v>
+        <v>2325.501633451304</v>
       </c>
       <c r="S10">
-        <v>0.001933383628298326</v>
+        <v>0.001761284751460766</v>
       </c>
       <c r="T10">
-        <v>0.001933383628298326</v>
+        <v>0.001761284751460766</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H11">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I11">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J11">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>270.8263607719348</v>
+        <v>271.2067465361411</v>
       </c>
       <c r="R11">
-        <v>270.8263607719348</v>
+        <v>2440.86071882527</v>
       </c>
       <c r="S11">
-        <v>0.002170060412283212</v>
+        <v>0.001848655233204993</v>
       </c>
       <c r="T11">
-        <v>0.002170060412283212</v>
+        <v>0.001848655233204993</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H12">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I12">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J12">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>202.2395959221286</v>
+        <v>206.5909289058206</v>
       </c>
       <c r="R12">
-        <v>202.2395959221286</v>
+        <v>1859.318360152386</v>
       </c>
       <c r="S12">
-        <v>0.001620492701138286</v>
+        <v>0.001408207600777851</v>
       </c>
       <c r="T12">
-        <v>0.001620492701138286</v>
+        <v>0.001408207600777851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H13">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I13">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J13">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>382.2184859764816</v>
+        <v>411.2721285694972</v>
       </c>
       <c r="R13">
-        <v>382.2184859764816</v>
+        <v>3701.449157125474</v>
       </c>
       <c r="S13">
-        <v>0.003062616219840081</v>
+        <v>0.002803397712121589</v>
       </c>
       <c r="T13">
-        <v>0.003062616219840081</v>
+        <v>0.002803397712121588</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H14">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I14">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J14">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>3994.855903323426</v>
+        <v>6075.879597143007</v>
       </c>
       <c r="R14">
-        <v>3994.855903323426</v>
+        <v>54682.91637428707</v>
       </c>
       <c r="S14">
-        <v>0.03200972986480576</v>
+        <v>0.04141566077186452</v>
       </c>
       <c r="T14">
-        <v>0.03200972986480576</v>
+        <v>0.04141566077186452</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H15">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I15">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J15">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>7925.813931106612</v>
+        <v>9334.396358138845</v>
       </c>
       <c r="R15">
-        <v>7925.813931106612</v>
+        <v>84009.56722324961</v>
       </c>
       <c r="S15">
-        <v>0.06350746285551237</v>
+        <v>0.06362703323821427</v>
       </c>
       <c r="T15">
-        <v>0.06350746285551237</v>
+        <v>0.06362703323821428</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H16">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I16">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J16">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>3720.844727006194</v>
+        <v>4664.332598327374</v>
       </c>
       <c r="R16">
-        <v>3720.844727006194</v>
+        <v>41978.99338494637</v>
       </c>
       <c r="S16">
-        <v>0.02981415036303814</v>
+        <v>0.0317939836579894</v>
       </c>
       <c r="T16">
-        <v>0.02981415036303814</v>
+        <v>0.0317939836579894</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H17">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I17">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J17">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>4176.335065708423</v>
+        <v>4895.711985330626</v>
       </c>
       <c r="R17">
-        <v>4176.335065708423</v>
+        <v>44061.40786797563</v>
       </c>
       <c r="S17">
-        <v>0.03346387467118092</v>
+        <v>0.0333711594476865</v>
       </c>
       <c r="T17">
-        <v>0.03346387467118092</v>
+        <v>0.03337115944768651</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H18">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I18">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J18">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>3118.67838018748</v>
+        <v>3729.293978201359</v>
       </c>
       <c r="R18">
-        <v>3118.67838018748</v>
+        <v>33563.64580381223</v>
       </c>
       <c r="S18">
-        <v>0.02498914977182571</v>
+        <v>0.02542038100826923</v>
       </c>
       <c r="T18">
-        <v>0.02498914977182571</v>
+        <v>0.02542038100826923</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H19">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I19">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J19">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>5894.080846471951</v>
+        <v>7424.114314213085</v>
       </c>
       <c r="R19">
-        <v>5894.080846471951</v>
+        <v>66817.02882791776</v>
       </c>
       <c r="S19">
-        <v>0.04722771991348548</v>
+        <v>0.05060577568284485</v>
       </c>
       <c r="T19">
-        <v>0.04722771991348548</v>
+        <v>0.05060577568284484</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H20">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I20">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J20">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>2284.344491623331</v>
+        <v>3082.998594351133</v>
       </c>
       <c r="R20">
-        <v>2284.344491623331</v>
+        <v>27746.9873491602</v>
       </c>
       <c r="S20">
-        <v>0.01830385171945459</v>
+        <v>0.02101496942168198</v>
       </c>
       <c r="T20">
-        <v>0.01830385171945459</v>
+        <v>0.02101496942168198</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H21">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I21">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J21">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>4532.150804261194</v>
+        <v>4736.422174131021</v>
       </c>
       <c r="R21">
-        <v>4532.150804261194</v>
+        <v>42627.7995671792</v>
       </c>
       <c r="S21">
-        <v>0.03631493261878931</v>
+        <v>0.03228537545878732</v>
       </c>
       <c r="T21">
-        <v>0.03631493261878931</v>
+        <v>0.03228537545878732</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H22">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I22">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J22">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>2127.659009991123</v>
+        <v>2366.757045513422</v>
       </c>
       <c r="R22">
-        <v>2127.659009991123</v>
+        <v>21300.8134096208</v>
       </c>
       <c r="S22">
-        <v>0.01704837215719768</v>
+        <v>0.01613277639216146</v>
       </c>
       <c r="T22">
-        <v>0.01704837215719768</v>
+        <v>0.01613277639216146</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H23">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I23">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J23">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>2388.118178327198</v>
+        <v>2484.162651317111</v>
       </c>
       <c r="R23">
-        <v>2388.118178327198</v>
+        <v>22357.463861854</v>
       </c>
       <c r="S23">
-        <v>0.01913536298265243</v>
+        <v>0.01693306064153455</v>
       </c>
       <c r="T23">
-        <v>0.01913536298265243</v>
+        <v>0.01693306064153455</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H24">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I24">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J24">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>1783.327346800991</v>
+        <v>1892.303477857466</v>
       </c>
       <c r="R24">
-        <v>1783.327346800991</v>
+        <v>17030.7313007172</v>
       </c>
       <c r="S24">
-        <v>0.01428933308561416</v>
+        <v>0.0128987083538021</v>
       </c>
       <c r="T24">
-        <v>0.01428933308561416</v>
+        <v>0.0128987083538021</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H25">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I25">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J25">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>3370.362145883567</v>
+        <v>3767.114477677222</v>
       </c>
       <c r="R25">
-        <v>3370.362145883567</v>
+        <v>33904.03029909499</v>
       </c>
       <c r="S25">
-        <v>0.02700582560350879</v>
+        <v>0.02567818087929553</v>
       </c>
       <c r="T25">
-        <v>0.02700582560350879</v>
+        <v>0.02567818087929553</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H26">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I26">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J26">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>8134.21590293165</v>
+        <v>11128.01127414382</v>
       </c>
       <c r="R26">
-        <v>8134.21590293165</v>
+        <v>100152.1014672944</v>
       </c>
       <c r="S26">
-        <v>0.06517733305430042</v>
+        <v>0.07585304030911606</v>
       </c>
       <c r="T26">
-        <v>0.06517733305430042</v>
+        <v>0.07585304030911606</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H27">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I27">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J27">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>16138.32470614274</v>
+        <v>17096.0049898848</v>
       </c>
       <c r="R27">
-        <v>16138.32470614274</v>
+        <v>153864.0449089632</v>
       </c>
       <c r="S27">
-        <v>0.1293121521315425</v>
+        <v>0.1165333071359918</v>
       </c>
       <c r="T27">
-        <v>0.1293121521315425</v>
+        <v>0.1165333071359918</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H28">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I28">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J28">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>7576.281869284433</v>
+        <v>8542.754165989425</v>
       </c>
       <c r="R28">
-        <v>7576.281869284433</v>
+        <v>76884.78749390482</v>
       </c>
       <c r="S28">
-        <v>0.06070675435718866</v>
+        <v>0.05823087882821372</v>
       </c>
       <c r="T28">
-        <v>0.06070675435718866</v>
+        <v>0.05823087882821371</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H29">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I29">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J29">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>8503.738790476773</v>
+        <v>8966.526952465867</v>
       </c>
       <c r="R29">
-        <v>8503.738790476773</v>
+        <v>80698.74257219282</v>
       </c>
       <c r="S29">
-        <v>0.06813822278234845</v>
+        <v>0.06111948609707876</v>
       </c>
       <c r="T29">
-        <v>0.06813822278234845</v>
+        <v>0.06111948609707876</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H30">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I30">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J30">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>6350.167287672581</v>
+        <v>6830.225117287591</v>
       </c>
       <c r="R30">
-        <v>6350.167287672581</v>
+        <v>61472.02605558833</v>
       </c>
       <c r="S30">
-        <v>0.05088222063419665</v>
+        <v>0.04655758593143718</v>
       </c>
       <c r="T30">
-        <v>0.05088222063419665</v>
+        <v>0.04655758593143718</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H31">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I31">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J31">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>12001.36558483908</v>
+        <v>13597.31154447879</v>
       </c>
       <c r="R31">
-        <v>12001.36558483908</v>
+        <v>122375.8039003091</v>
       </c>
       <c r="S31">
-        <v>0.09616378654856664</v>
+        <v>0.0926847929310993</v>
       </c>
       <c r="T31">
-        <v>0.09616378654856664</v>
+        <v>0.09268479293109928</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H32">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I32">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J32">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>242.2801854886004</v>
+        <v>349.6882419836504</v>
       </c>
       <c r="R32">
-        <v>242.2801854886004</v>
+        <v>3147.194177852853</v>
       </c>
       <c r="S32">
-        <v>0.001941327416248799</v>
+        <v>0.002383616951974248</v>
       </c>
       <c r="T32">
-        <v>0.001941327416248799</v>
+        <v>0.002383616951974248</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H33">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I33">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J33">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>480.6850899876317</v>
+        <v>537.2273430156541</v>
       </c>
       <c r="R33">
-        <v>480.6850899876317</v>
+        <v>4835.046087140888</v>
       </c>
       <c r="S33">
-        <v>0.00385160322497325</v>
+        <v>0.003661959563215938</v>
       </c>
       <c r="T33">
-        <v>0.00385160322497325</v>
+        <v>0.003661959563215938</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H34">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I34">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J34">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>225.6619443728547</v>
+        <v>268.4487472567902</v>
       </c>
       <c r="R34">
-        <v>225.6619443728547</v>
+        <v>2416.038725311112</v>
       </c>
       <c r="S34">
-        <v>0.001808169820126074</v>
+        <v>0.001829855590990826</v>
       </c>
       <c r="T34">
-        <v>0.001808169820126074</v>
+        <v>0.001829855590990826</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H35">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I35">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J35">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>253.2865412093096</v>
+        <v>281.7654448277011</v>
       </c>
       <c r="R35">
-        <v>253.2865412093096</v>
+        <v>2535.88900344931</v>
       </c>
       <c r="S35">
-        <v>0.00202951845040419</v>
+        <v>0.001920627605212058</v>
       </c>
       <c r="T35">
-        <v>0.00202951845040419</v>
+        <v>0.001920627605212058</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H36">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I36">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J36">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>189.1417349503174</v>
+        <v>214.6339857838286</v>
       </c>
       <c r="R36">
-        <v>189.1417349503174</v>
+        <v>1931.705872054458</v>
       </c>
       <c r="S36">
-        <v>0.001515542985388673</v>
+        <v>0.001463032340126706</v>
       </c>
       <c r="T36">
-        <v>0.001515542985388673</v>
+        <v>0.001463032340126706</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H37">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I37">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J37">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>357.464458124766</v>
+        <v>427.2838922027972</v>
       </c>
       <c r="R37">
-        <v>357.464458124766</v>
+        <v>3845.555029825174</v>
       </c>
       <c r="S37">
-        <v>0.002864268703990985</v>
+        <v>0.002912540390213473</v>
       </c>
       <c r="T37">
-        <v>0.002864268703990985</v>
+        <v>0.002912540390213473</v>
       </c>
     </row>
   </sheetData>
